--- a/data/ch06/XlsxWriter_cell_format_02.xlsx
+++ b/data/ch06/XlsxWriter_cell_format_02.xlsx
@@ -65,13 +65,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkDown">
+        <fgColor rgb="FF800000"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
